--- a/1. Dataset/Dataset_NMA for EGFR-TKIs in NSCLC_secondary outcomes.xlsx
+++ b/1. Dataset/Dataset_NMA for EGFR-TKIs in NSCLC_secondary outcomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code-2025\1. Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code-git-2025\NMA-for-EGFR-TKIs\1. Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD46535-371D-44DE-A83E-840EDC48395A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F602FA6F-79EA-49AC-A89E-B4BD6AAC6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="390" windowWidth="17175" windowHeight="14985" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="serious-arrhythmias" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Gefitinib</t>
-  </si>
-  <si>
-    <t>VEGF inhibitor</t>
   </si>
   <si>
     <t>Almonertinib</t>
@@ -191,6 +188,9 @@
   <si>
     <t>Afatinib + HMGCR inhibitor</t>
   </si>
+  <si>
+    <t>antiangiogenesis</t>
+  </si>
 </sst>
 </file>
 
@@ -252,20 +252,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +496,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +798,7 @@
         <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -816,7 +812,7 @@
         <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -844,7 +840,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -858,7 +854,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -872,7 +868,7 @@
         <v>244</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -886,7 +882,7 @@
         <v>248</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -900,7 +896,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -914,7 +910,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -928,7 +924,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -942,7 +938,7 @@
         <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -956,7 +952,7 @@
         <v>337</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -970,7 +966,7 @@
         <v>343</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -984,7 +980,7 @@
         <v>517</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -998,7 +994,7 @@
         <v>520</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1012,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1026,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1040,7 +1036,7 @@
         <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1054,7 +1050,7 @@
         <v>221</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1068,7 +1064,7 @@
         <v>477</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1082,7 +1078,7 @@
         <v>473</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1096,7 +1092,7 @@
         <v>614</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1110,7 +1106,7 @@
         <v>623</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1124,7 +1120,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1138,7 +1134,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1152,7 +1148,7 @@
         <v>322</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1166,7 +1162,7 @@
         <v>319</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1180,7 +1176,7 @@
         <v>279</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1194,7 +1190,7 @@
         <v>277</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1208,7 +1204,7 @@
         <v>313</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1222,7 +1218,7 @@
         <v>313</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1236,7 +1232,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1250,7 +1246,7 @@
         <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1264,7 +1260,7 @@
         <v>392</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1278,7 +1274,7 @@
         <v>395</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1292,7 +1288,7 @@
         <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1306,7 +1302,7 @@
         <v>84</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1320,7 +1316,7 @@
         <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1334,7 +1330,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1348,7 +1344,7 @@
         <v>279</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1362,7 +1358,7 @@
         <v>136</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1376,7 +1372,7 @@
         <v>290</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1390,7 +1386,7 @@
         <v>289</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1404,7 +1400,7 @@
         <v>611</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1418,7 +1414,7 @@
         <v>343</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1432,7 +1428,7 @@
         <v>160</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1460,7 +1456,7 @@
         <v>229</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1474,7 +1470,7 @@
         <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1488,7 +1484,7 @@
         <v>196</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1502,7 +1498,7 @@
         <v>213</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1516,7 +1512,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1530,7 +1526,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1544,7 +1540,7 @@
         <v>390</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1558,7 +1554,7 @@
         <v>195</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1572,7 +1568,7 @@
         <v>433</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1586,7 +1582,7 @@
         <v>445</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1600,7 +1596,7 @@
         <v>436</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1614,7 +1610,7 @@
         <v>436</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1628,7 +1624,7 @@
         <v>71</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1642,7 +1638,7 @@
         <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1656,7 +1652,7 @@
         <v>69</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1670,7 +1666,7 @@
         <v>68</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1684,7 +1680,7 @@
         <v>372</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1698,7 +1694,7 @@
         <v>368</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1712,7 +1708,7 @@
         <v>83</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1726,7 +1722,7 @@
         <v>80</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1740,7 +1736,7 @@
         <v>78</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1768,7 +1764,7 @@
         <v>589</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1796,7 +1792,7 @@
         <v>71</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1810,7 +1806,7 @@
         <v>178</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1838,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1852,12 +1848,12 @@
         <v>41</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -1866,12 +1862,12 @@
         <v>428</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="2">
         <v>2</v>
@@ -1880,12 +1876,12 @@
         <v>213</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="2">
         <v>3</v>
@@ -1894,12 +1890,12 @@
         <v>421</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82" s="2">
         <v>8</v>
@@ -1908,12 +1904,12 @@
         <v>220</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83" s="2">
         <v>3</v>
@@ -1922,12 +1918,12 @@
         <v>218</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
@@ -1936,13 +1932,13 @@
         <v>477</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1">
         <v>1</v>
@@ -1951,12 +1947,12 @@
         <v>239</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
@@ -1965,12 +1961,12 @@
         <v>275</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -1979,12 +1975,12 @@
         <v>276</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -1993,12 +1989,12 @@
         <v>196</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
@@ -2012,7 +2008,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -2021,12 +2017,12 @@
         <v>101</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" s="1">
         <v>2</v>
@@ -2035,12 +2031,12 @@
         <v>97</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -2049,12 +2045,12 @@
         <v>143</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -2063,7 +2059,7 @@
         <v>73</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2105,7 @@
         <v>214</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2137,7 +2133,7 @@
         <v>244</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2151,7 +2147,7 @@
         <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2165,7 +2161,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2179,7 +2175,7 @@
         <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2193,7 +2189,7 @@
         <v>337</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2207,7 +2203,7 @@
         <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2221,7 +2217,7 @@
         <v>517</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2235,7 +2231,7 @@
         <v>520</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2249,7 +2245,7 @@
         <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2263,7 +2259,7 @@
         <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2277,7 +2273,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2291,7 +2287,7 @@
         <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2305,7 +2301,7 @@
         <v>477</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2319,7 +2315,7 @@
         <v>473</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2333,7 +2329,7 @@
         <v>614</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2347,7 +2343,7 @@
         <v>623</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2361,7 +2357,7 @@
         <v>322</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2375,7 +2371,7 @@
         <v>319</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2389,7 +2385,7 @@
         <v>279</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2403,7 +2399,7 @@
         <v>277</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2417,7 +2413,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2431,7 +2427,7 @@
         <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2445,7 +2441,7 @@
         <v>313</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2459,7 +2455,7 @@
         <v>313</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2473,7 +2469,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2487,7 +2483,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2501,7 +2497,7 @@
         <v>392</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2515,7 +2511,7 @@
         <v>395</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2529,7 +2525,7 @@
         <v>279</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2543,7 +2539,7 @@
         <v>136</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2557,7 +2553,7 @@
         <v>290</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2571,7 +2567,7 @@
         <v>289</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2585,7 +2581,7 @@
         <v>611</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2599,7 +2595,7 @@
         <v>343</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2627,7 +2623,7 @@
         <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2641,7 +2637,7 @@
         <v>196</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2655,7 +2651,7 @@
         <v>213</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2669,7 +2665,7 @@
         <v>390</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2683,7 +2679,7 @@
         <v>195</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2697,7 +2693,7 @@
         <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2725,7 +2721,7 @@
         <v>239</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2739,7 +2735,7 @@
         <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2753,7 +2749,7 @@
         <v>433</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2767,7 +2763,7 @@
         <v>445</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2781,7 +2777,7 @@
         <v>436</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2795,7 +2791,7 @@
         <v>436</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2809,7 +2805,7 @@
         <v>71</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2823,7 +2819,7 @@
         <v>141</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2851,7 +2847,7 @@
         <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2865,7 +2861,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2879,7 +2875,7 @@
         <v>68</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2907,12 +2903,12 @@
         <v>589</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="2">
         <v>5</v>
@@ -2921,12 +2917,12 @@
         <v>428</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -2935,12 +2931,12 @@
         <v>213</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
@@ -2949,12 +2945,12 @@
         <v>421</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -2963,12 +2959,12 @@
         <v>275</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="1">
         <v>4</v>
@@ -2977,12 +2973,12 @@
         <v>276</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -2991,12 +2987,12 @@
         <v>196</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -3010,7 +3006,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -3019,12 +3015,12 @@
         <v>143</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -3033,7 +3029,7 @@
         <v>73</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +3075,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3093,7 +3089,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3107,7 +3103,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3121,7 +3117,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3135,7 +3131,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3163,7 +3159,7 @@
         <v>244</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3177,7 +3173,7 @@
         <v>248</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3191,7 +3187,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3205,7 +3201,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3219,7 +3215,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3233,7 +3229,7 @@
         <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3247,7 +3243,7 @@
         <v>337</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3261,7 +3257,7 @@
         <v>343</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3275,7 +3271,7 @@
         <v>517</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3289,7 +3285,7 @@
         <v>520</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3317,7 +3313,7 @@
         <v>164</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3331,7 +3327,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3345,7 +3341,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3359,7 +3355,7 @@
         <v>225</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3373,7 +3369,7 @@
         <v>221</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3387,7 +3383,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3401,7 +3397,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3415,7 +3411,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3429,7 +3425,7 @@
         <v>126</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3443,7 +3439,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3457,7 +3453,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3471,7 +3467,7 @@
         <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3485,7 +3481,7 @@
         <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3513,7 +3509,7 @@
         <v>170</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3527,7 +3523,7 @@
         <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3541,7 +3537,7 @@
         <v>112</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3555,7 +3551,7 @@
         <v>477</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3569,7 +3565,7 @@
         <v>473</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3583,7 +3579,7 @@
         <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3597,7 +3593,7 @@
         <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3611,7 +3607,7 @@
         <v>614</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3625,7 +3621,7 @@
         <v>623</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3639,7 +3635,7 @@
         <v>85</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3653,7 +3649,7 @@
         <v>83</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3667,7 +3663,7 @@
         <v>322</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3681,7 +3677,7 @@
         <v>319</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3695,7 +3691,7 @@
         <v>279</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3709,7 +3705,7 @@
         <v>277</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3723,7 +3719,7 @@
         <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3737,7 +3733,7 @@
         <v>71</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3751,7 +3747,7 @@
         <v>64</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3765,7 +3761,7 @@
         <v>64</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3779,7 +3775,7 @@
         <v>313</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3793,7 +3789,7 @@
         <v>313</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3807,7 +3803,7 @@
         <v>63</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3821,7 +3817,7 @@
         <v>64</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3835,7 +3831,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3849,7 +3845,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3863,7 +3859,7 @@
         <v>40</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3877,7 +3873,7 @@
         <v>40</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3891,7 +3887,7 @@
         <v>39</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3905,7 +3901,7 @@
         <v>392</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3919,7 +3915,7 @@
         <v>395</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3933,7 +3929,7 @@
         <v>83</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3947,7 +3943,7 @@
         <v>84</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3961,7 +3957,7 @@
         <v>153</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3975,7 +3971,7 @@
         <v>157</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3989,7 +3985,7 @@
         <v>279</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4003,7 +3999,7 @@
         <v>136</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4017,7 +4013,7 @@
         <v>227</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4045,7 +4041,7 @@
         <v>290</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4059,7 +4055,7 @@
         <v>289</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4073,7 +4069,7 @@
         <v>93</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4087,7 +4083,7 @@
         <v>94</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4101,7 +4097,7 @@
         <v>611</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4115,7 +4111,7 @@
         <v>343</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4129,7 +4125,7 @@
         <v>160</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4171,7 +4167,7 @@
         <v>114</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4185,7 +4181,7 @@
         <v>229</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4199,7 +4195,7 @@
         <v>111</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4213,7 +4209,7 @@
         <v>196</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4227,7 +4223,7 @@
         <v>213</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4241,7 +4237,7 @@
         <v>50</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4255,7 +4251,7 @@
         <v>49</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4269,7 +4265,7 @@
         <v>390</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4283,7 +4279,7 @@
         <v>195</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4297,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4311,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4325,7 +4321,7 @@
         <v>239</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4339,7 +4335,7 @@
         <v>113</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4353,7 +4349,7 @@
         <v>433</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4367,7 +4363,7 @@
         <v>445</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4381,7 +4377,7 @@
         <v>436</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4395,7 +4391,7 @@
         <v>436</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4409,7 +4405,7 @@
         <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4423,7 +4419,7 @@
         <v>26</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4437,7 +4433,7 @@
         <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4451,7 +4447,7 @@
         <v>141</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4479,7 +4475,7 @@
         <v>243</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4493,7 +4489,7 @@
         <v>103</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4507,7 +4503,7 @@
         <v>102</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4521,7 +4517,7 @@
         <v>69</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4535,7 +4531,7 @@
         <v>68</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4549,7 +4545,7 @@
         <v>372</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4563,7 +4559,7 @@
         <v>368</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4577,7 +4573,7 @@
         <v>84</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4591,7 +4587,7 @@
         <v>83</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4605,7 +4601,7 @@
         <v>83</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4619,7 +4615,7 @@
         <v>78</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4633,7 +4629,7 @@
         <v>87</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4647,7 +4643,7 @@
         <v>88</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4675,7 +4671,7 @@
         <v>87</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4703,7 +4699,7 @@
         <v>150</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4731,7 +4727,7 @@
         <v>589</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4759,7 +4755,7 @@
         <v>71</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4773,7 +4769,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4787,12 +4783,12 @@
         <v>5</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B125" s="2">
         <v>18</v>
@@ -4801,12 +4797,12 @@
         <v>428</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B126" s="2">
         <v>12</v>
@@ -4815,12 +4811,12 @@
         <v>213</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B127" s="2">
         <v>59</v>
@@ -4829,12 +4825,12 @@
         <v>421</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B128" s="1">
         <v>1</v>
@@ -4848,7 +4844,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -4857,12 +4853,12 @@
         <v>148</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B130" s="1">
         <v>13</v>
@@ -4871,12 +4867,12 @@
         <v>477</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B131" s="1">
         <v>4</v>
@@ -4885,12 +4881,12 @@
         <v>239</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B132" s="1">
         <v>5</v>
@@ -4899,12 +4895,12 @@
         <v>275</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B133" s="1">
         <v>13</v>
@@ -4913,12 +4909,12 @@
         <v>276</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
@@ -4927,12 +4923,12 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
@@ -4941,12 +4937,12 @@
         <v>38</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B136" s="1">
         <v>10</v>
@@ -4955,12 +4951,12 @@
         <v>196</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -4974,7 +4970,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
@@ -4983,12 +4979,12 @@
         <v>101</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
@@ -4997,12 +4993,12 @@
         <v>97</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B140" s="2">
         <v>2</v>
@@ -5011,12 +5007,12 @@
         <v>143</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B141" s="2">
         <v>1</v>
@@ -5025,7 +5021,7 @@
         <v>73</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5071,7 +5067,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5085,7 +5081,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5099,7 +5095,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5113,7 +5109,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5141,7 +5137,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5155,7 +5151,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5169,7 +5165,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5183,7 +5179,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5197,7 +5193,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5211,7 +5207,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5225,7 +5221,7 @@
         <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5239,7 +5235,7 @@
         <v>337</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5253,7 +5249,7 @@
         <v>343</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5281,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5295,7 +5291,7 @@
         <v>517</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5309,7 +5305,7 @@
         <v>520</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5337,7 +5333,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5351,7 +5347,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5365,7 +5361,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5379,7 +5375,7 @@
         <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5393,7 +5389,7 @@
         <v>221</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5407,7 +5403,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5421,7 +5417,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5449,7 +5445,7 @@
         <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5463,7 +5459,7 @@
         <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5477,7 +5473,7 @@
         <v>112</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5491,7 +5487,7 @@
         <v>477</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5505,7 +5501,7 @@
         <v>473</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5533,7 +5529,7 @@
         <v>157</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5547,7 +5543,7 @@
         <v>614</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5561,7 +5557,7 @@
         <v>623</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5575,7 +5571,7 @@
         <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5589,7 +5585,7 @@
         <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5603,7 +5599,7 @@
         <v>279</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5617,7 +5613,7 @@
         <v>277</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5631,7 +5627,7 @@
         <v>313</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5645,7 +5641,7 @@
         <v>313</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5659,7 +5655,7 @@
         <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5673,7 +5669,7 @@
         <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5687,7 +5683,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5701,7 +5697,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5715,7 +5711,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5729,7 +5725,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5743,7 +5739,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5757,7 +5753,7 @@
         <v>392</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5771,7 +5767,7 @@
         <v>395</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5785,7 +5781,7 @@
         <v>153</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5799,7 +5795,7 @@
         <v>157</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5813,7 +5809,7 @@
         <v>227</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5841,7 +5837,7 @@
         <v>290</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5855,7 +5851,7 @@
         <v>289</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5869,7 +5865,7 @@
         <v>611</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5883,7 +5879,7 @@
         <v>343</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5897,7 +5893,7 @@
         <v>160</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5925,7 +5921,7 @@
         <v>390</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5939,7 +5935,7 @@
         <v>195</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5967,7 +5963,7 @@
         <v>243</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5981,7 +5977,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5995,7 +5991,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6009,7 +6005,7 @@
         <v>83</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6023,12 +6019,12 @@
         <v>80</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -6037,12 +6033,12 @@
         <v>428</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -6051,12 +6047,12 @@
         <v>213</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -6065,12 +6061,12 @@
         <v>196</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -6139,7 +6135,7 @@
         <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6153,7 +6149,7 @@
         <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6181,7 +6177,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6195,7 +6191,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6209,7 +6205,7 @@
         <v>244</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6223,7 +6219,7 @@
         <v>248</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6237,7 +6233,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6251,7 +6247,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6265,7 +6261,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6279,7 +6275,7 @@
         <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6293,7 +6289,7 @@
         <v>337</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6307,7 +6303,7 @@
         <v>343</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6321,7 +6317,7 @@
         <v>517</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6335,7 +6331,7 @@
         <v>520</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6349,7 +6345,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6363,7 +6359,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6377,7 +6373,7 @@
         <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6391,7 +6387,7 @@
         <v>221</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6405,7 +6401,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6419,7 +6415,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6433,7 +6429,7 @@
         <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6447,7 +6443,7 @@
         <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6475,7 +6471,7 @@
         <v>170</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6489,7 +6485,7 @@
         <v>477</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6503,7 +6499,7 @@
         <v>473</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6517,7 +6513,7 @@
         <v>614</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6531,7 +6527,7 @@
         <v>623</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6545,7 +6541,7 @@
         <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6559,7 +6555,7 @@
         <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6573,7 +6569,7 @@
         <v>322</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6587,7 +6583,7 @@
         <v>319</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6601,7 +6597,7 @@
         <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6615,7 +6611,7 @@
         <v>277</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6629,7 +6625,7 @@
         <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6643,7 +6639,7 @@
         <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6657,7 +6653,7 @@
         <v>313</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6671,7 +6667,7 @@
         <v>313</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6685,7 +6681,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6699,7 +6695,7 @@
         <v>40</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6713,7 +6709,7 @@
         <v>392</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6727,7 +6723,7 @@
         <v>395</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6741,7 +6737,7 @@
         <v>83</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6755,7 +6751,7 @@
         <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6769,7 +6765,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6783,7 +6779,7 @@
         <v>35</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6797,7 +6793,7 @@
         <v>279</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6811,7 +6807,7 @@
         <v>136</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6825,7 +6821,7 @@
         <v>290</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6839,7 +6835,7 @@
         <v>289</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6853,7 +6849,7 @@
         <v>611</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6867,7 +6863,7 @@
         <v>343</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6881,7 +6877,7 @@
         <v>160</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6909,7 +6905,7 @@
         <v>229</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6923,7 +6919,7 @@
         <v>111</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6937,7 +6933,7 @@
         <v>196</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6951,7 +6947,7 @@
         <v>213</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6965,7 +6961,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6979,7 +6975,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6993,7 +6989,7 @@
         <v>50</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7007,7 +7003,7 @@
         <v>49</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7021,7 +7017,7 @@
         <v>390</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7035,7 +7031,7 @@
         <v>195</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7049,7 +7045,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -7063,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7077,7 +7073,7 @@
         <v>433</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -7091,7 +7087,7 @@
         <v>445</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7105,7 +7101,7 @@
         <v>436</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7119,7 +7115,7 @@
         <v>436</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7133,7 +7129,7 @@
         <v>71</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7147,7 +7143,7 @@
         <v>141</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7161,7 +7157,7 @@
         <v>31</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7175,7 +7171,7 @@
         <v>31</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7189,7 +7185,7 @@
         <v>69</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7203,7 +7199,7 @@
         <v>68</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7217,7 +7213,7 @@
         <v>372</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7231,7 +7227,7 @@
         <v>368</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7245,7 +7241,7 @@
         <v>83</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7259,7 +7255,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7273,7 +7269,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7301,7 +7297,7 @@
         <v>126</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7329,7 +7325,7 @@
         <v>589</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7357,7 +7353,7 @@
         <v>71</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7371,7 +7367,7 @@
         <v>178</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7399,7 +7395,7 @@
         <v>38</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7413,12 +7409,12 @@
         <v>41</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
@@ -7427,12 +7423,12 @@
         <v>428</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96" s="2">
         <v>2</v>
@@ -7441,12 +7437,12 @@
         <v>213</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" s="2">
         <v>3</v>
@@ -7455,12 +7451,12 @@
         <v>421</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -7469,12 +7465,12 @@
         <v>477</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -7483,12 +7479,12 @@
         <v>239</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B100" s="1">
         <v>28</v>
@@ -7497,12 +7493,12 @@
         <v>275</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B101" s="1">
         <v>32</v>
@@ -7511,12 +7507,12 @@
         <v>276</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
@@ -7525,12 +7521,12 @@
         <v>38</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
@@ -7539,12 +7535,12 @@
         <v>38</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -7553,12 +7549,12 @@
         <v>196</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
@@ -7572,7 +7568,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
@@ -7581,12 +7577,12 @@
         <v>101</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107" s="1">
         <v>2</v>
@@ -7595,12 +7591,12 @@
         <v>97</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B108" s="2">
         <v>26</v>
@@ -7609,12 +7605,12 @@
         <v>220</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B109" s="2">
         <v>23</v>
@@ -7623,12 +7619,12 @@
         <v>218</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -7637,12 +7633,12 @@
         <v>143</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111" s="2">
         <v>0</v>
@@ -7651,7 +7647,7 @@
         <v>73</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7697,7 +7693,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7711,7 +7707,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7725,7 +7721,7 @@
         <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7753,7 +7749,7 @@
         <v>244</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7767,7 +7763,7 @@
         <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7781,7 +7777,7 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7795,7 +7791,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7809,7 +7805,7 @@
         <v>337</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7823,7 +7819,7 @@
         <v>343</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7837,7 +7833,7 @@
         <v>517</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7851,7 +7847,7 @@
         <v>520</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7865,7 +7861,7 @@
         <v>225</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7879,7 +7875,7 @@
         <v>221</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7893,7 +7889,7 @@
         <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7907,7 +7903,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7921,7 +7917,7 @@
         <v>477</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7935,7 +7931,7 @@
         <v>473</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7949,7 +7945,7 @@
         <v>614</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7963,7 +7959,7 @@
         <v>623</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7977,7 +7973,7 @@
         <v>322</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7991,7 +7987,7 @@
         <v>319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8005,7 +8001,7 @@
         <v>279</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8019,7 +8015,7 @@
         <v>277</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8033,7 +8029,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8047,7 +8043,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8061,7 +8057,7 @@
         <v>313</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8075,7 +8071,7 @@
         <v>313</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8089,7 +8085,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8103,7 +8099,7 @@
         <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8117,7 +8113,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8131,7 +8127,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8145,7 +8141,7 @@
         <v>392</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8159,7 +8155,7 @@
         <v>395</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8173,7 +8169,7 @@
         <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8187,7 +8183,7 @@
         <v>136</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8201,7 +8197,7 @@
         <v>290</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8215,7 +8211,7 @@
         <v>289</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8229,7 +8225,7 @@
         <v>611</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8243,7 +8239,7 @@
         <v>343</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8271,7 +8267,7 @@
         <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8285,7 +8281,7 @@
         <v>196</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8299,7 +8295,7 @@
         <v>213</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8313,7 +8309,7 @@
         <v>390</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8327,7 +8323,7 @@
         <v>195</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8341,7 +8337,7 @@
         <v>200</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8369,7 +8365,7 @@
         <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8383,7 +8379,7 @@
         <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8397,7 +8393,7 @@
         <v>433</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8411,7 +8407,7 @@
         <v>445</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8425,7 +8421,7 @@
         <v>436</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8439,7 +8435,7 @@
         <v>436</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8453,7 +8449,7 @@
         <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8467,7 +8463,7 @@
         <v>141</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -8495,7 +8491,7 @@
         <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8509,7 +8505,7 @@
         <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8523,7 +8519,7 @@
         <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8551,7 +8547,7 @@
         <v>126</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8579,12 +8575,12 @@
         <v>589</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" s="2">
         <v>5</v>
@@ -8593,12 +8589,12 @@
         <v>428</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -8607,12 +8603,12 @@
         <v>213</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68" s="2">
         <v>2</v>
@@ -8621,12 +8617,12 @@
         <v>421</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -8635,12 +8631,12 @@
         <v>275</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" s="1">
         <v>6</v>
@@ -8649,12 +8645,12 @@
         <v>276</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -8663,12 +8659,12 @@
         <v>196</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -8682,7 +8678,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -8691,12 +8687,12 @@
         <v>143</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -8705,7 +8701,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8751,7 +8747,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8765,7 +8761,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8779,7 +8775,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8793,7 +8789,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8807,7 +8803,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8835,7 +8831,7 @@
         <v>244</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8849,7 +8845,7 @@
         <v>248</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8863,7 +8859,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8877,7 +8873,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8891,7 +8887,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8905,7 +8901,7 @@
         <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8919,7 +8915,7 @@
         <v>337</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8933,7 +8929,7 @@
         <v>343</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8947,7 +8943,7 @@
         <v>517</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8961,7 +8957,7 @@
         <v>520</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8989,7 +8985,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9017,7 +9013,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9031,7 +9027,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9045,7 +9041,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9059,7 +9055,7 @@
         <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9073,7 +9069,7 @@
         <v>221</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9087,7 +9083,7 @@
         <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9101,7 +9097,7 @@
         <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9115,7 +9111,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9129,7 +9125,7 @@
         <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9143,7 +9139,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9157,7 +9153,7 @@
         <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -9171,7 +9167,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9185,7 +9181,7 @@
         <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9213,7 +9209,7 @@
         <v>170</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9227,7 +9223,7 @@
         <v>114</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -9241,7 +9237,7 @@
         <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -9255,7 +9251,7 @@
         <v>477</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9269,7 +9265,7 @@
         <v>473</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -9283,7 +9279,7 @@
         <v>110</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -9297,7 +9293,7 @@
         <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -9311,7 +9307,7 @@
         <v>614</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -9325,7 +9321,7 @@
         <v>623</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -9339,7 +9335,7 @@
         <v>85</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -9353,7 +9349,7 @@
         <v>83</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -9367,7 +9363,7 @@
         <v>322</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9381,7 +9377,7 @@
         <v>319</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -9395,7 +9391,7 @@
         <v>279</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -9409,7 +9405,7 @@
         <v>277</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -9423,7 +9419,7 @@
         <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -9437,7 +9433,7 @@
         <v>71</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -9451,7 +9447,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -9465,7 +9461,7 @@
         <v>64</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -9479,7 +9475,7 @@
         <v>313</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -9493,7 +9489,7 @@
         <v>313</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -9507,7 +9503,7 @@
         <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -9521,7 +9517,7 @@
         <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -9535,7 +9531,7 @@
         <v>45</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -9549,7 +9545,7 @@
         <v>43</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -9563,7 +9559,7 @@
         <v>40</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -9577,7 +9573,7 @@
         <v>40</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -9591,7 +9587,7 @@
         <v>39</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -9605,7 +9601,7 @@
         <v>392</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -9619,7 +9615,7 @@
         <v>395</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -9633,7 +9629,7 @@
         <v>83</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -9647,7 +9643,7 @@
         <v>84</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -9661,7 +9657,7 @@
         <v>153</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -9675,7 +9671,7 @@
         <v>157</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -9689,7 +9685,7 @@
         <v>279</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -9703,7 +9699,7 @@
         <v>136</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -9717,7 +9713,7 @@
         <v>227</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -9745,7 +9741,7 @@
         <v>290</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -9759,7 +9755,7 @@
         <v>289</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -9773,7 +9769,7 @@
         <v>93</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -9787,7 +9783,7 @@
         <v>94</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -9801,7 +9797,7 @@
         <v>611</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -9815,7 +9811,7 @@
         <v>343</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -9829,7 +9825,7 @@
         <v>160</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -9871,7 +9867,7 @@
         <v>114</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -9885,7 +9881,7 @@
         <v>229</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -9899,7 +9895,7 @@
         <v>111</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -9913,7 +9909,7 @@
         <v>196</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -9927,7 +9923,7 @@
         <v>213</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -9941,7 +9937,7 @@
         <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -9955,7 +9951,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -9969,7 +9965,7 @@
         <v>50</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -9983,7 +9979,7 @@
         <v>49</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -9997,7 +9993,7 @@
         <v>390</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -10011,7 +10007,7 @@
         <v>195</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -10025,7 +10021,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -10039,7 +10035,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -10053,7 +10049,7 @@
         <v>239</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -10067,7 +10063,7 @@
         <v>113</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -10081,7 +10077,7 @@
         <v>433</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -10095,7 +10091,7 @@
         <v>445</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -10109,7 +10105,7 @@
         <v>436</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -10123,7 +10119,7 @@
         <v>436</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -10137,7 +10133,7 @@
         <v>33</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -10151,7 +10147,7 @@
         <v>26</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -10165,7 +10161,7 @@
         <v>71</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -10179,7 +10175,7 @@
         <v>141</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -10207,7 +10203,7 @@
         <v>243</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -10221,7 +10217,7 @@
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -10235,7 +10231,7 @@
         <v>102</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -10249,7 +10245,7 @@
         <v>69</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -10263,7 +10259,7 @@
         <v>68</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -10277,7 +10273,7 @@
         <v>372</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -10291,7 +10287,7 @@
         <v>368</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -10305,7 +10301,7 @@
         <v>84</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -10319,7 +10315,7 @@
         <v>83</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -10333,7 +10329,7 @@
         <v>83</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -10347,7 +10343,7 @@
         <v>78</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -10361,7 +10357,7 @@
         <v>87</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -10375,7 +10371,7 @@
         <v>88</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -10403,7 +10399,7 @@
         <v>99</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -10431,7 +10427,7 @@
         <v>87</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -10459,7 +10455,7 @@
         <v>126</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -10487,7 +10483,7 @@
         <v>150</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -10515,7 +10511,7 @@
         <v>589</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -10543,7 +10539,7 @@
         <v>71</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -10557,7 +10553,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10571,12 +10567,12 @@
         <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B133" s="2">
         <v>44</v>
@@ -10585,12 +10581,12 @@
         <v>428</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B134" s="2">
         <v>28</v>
@@ -10599,12 +10595,12 @@
         <v>213</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B135" s="2">
         <v>178</v>
@@ -10613,12 +10609,12 @@
         <v>421</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
@@ -10632,7 +10628,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -10641,12 +10637,12 @@
         <v>148</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B138" s="1">
         <v>13</v>
@@ -10655,12 +10651,12 @@
         <v>477</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" s="1">
         <v>4</v>
@@ -10669,12 +10665,12 @@
         <v>239</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140" s="1">
         <v>7</v>
@@ -10683,12 +10679,12 @@
         <v>275</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B141" s="1">
         <v>14</v>
@@ -10697,12 +10693,12 @@
         <v>276</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B142" s="1">
         <v>3</v>
@@ -10711,12 +10707,12 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -10725,12 +10721,12 @@
         <v>38</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B144" s="1">
         <v>23</v>
@@ -10739,12 +10735,12 @@
         <v>196</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B145" s="1">
         <v>10</v>
@@ -10758,7 +10754,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
@@ -10767,12 +10763,12 @@
         <v>101</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B147" s="1">
         <v>1</v>
@@ -10781,12 +10777,12 @@
         <v>97</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B148" s="2">
         <v>2</v>
@@ -10795,12 +10791,12 @@
         <v>143</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B149" s="2">
         <v>1</v>
@@ -10809,7 +10805,7 @@
         <v>73</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10821,7 +10817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
@@ -10855,7 +10851,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10869,7 +10865,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10897,7 +10893,7 @@
         <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10911,7 +10907,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10939,7 +10935,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10953,7 +10949,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10967,7 +10963,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10981,7 +10977,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10995,7 +10991,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11009,7 +11005,7 @@
         <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11023,7 +11019,7 @@
         <v>337</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11037,7 +11033,7 @@
         <v>343</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11065,7 +11061,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11079,7 +11075,7 @@
         <v>517</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11093,7 +11089,7 @@
         <v>520</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11121,7 +11117,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -11135,7 +11131,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -11149,7 +11145,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11163,7 +11159,7 @@
         <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -11177,7 +11173,7 @@
         <v>221</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -11191,7 +11187,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11205,7 +11201,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -11233,7 +11229,7 @@
         <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -11247,7 +11243,7 @@
         <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -11261,7 +11257,7 @@
         <v>112</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -11275,7 +11271,7 @@
         <v>477</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -11289,7 +11285,7 @@
         <v>473</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11317,7 +11313,7 @@
         <v>157</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -11331,7 +11327,7 @@
         <v>614</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -11345,7 +11341,7 @@
         <v>623</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -11359,7 +11355,7 @@
         <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -11373,7 +11369,7 @@
         <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11387,7 +11383,7 @@
         <v>279</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -11401,7 +11397,7 @@
         <v>277</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -11415,7 +11411,7 @@
         <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11429,7 +11425,7 @@
         <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -11443,7 +11439,7 @@
         <v>313</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -11457,7 +11453,7 @@
         <v>313</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -11471,7 +11467,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -11485,7 +11481,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -11499,7 +11495,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -11513,7 +11509,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -11527,7 +11523,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -11541,7 +11537,7 @@
         <v>392</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -11555,7 +11551,7 @@
         <v>395</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -11569,7 +11565,7 @@
         <v>279</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -11583,7 +11579,7 @@
         <v>136</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -11597,7 +11593,7 @@
         <v>227</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -11625,7 +11621,7 @@
         <v>290</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -11639,7 +11635,7 @@
         <v>289</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -11653,7 +11649,7 @@
         <v>611</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11667,7 +11663,7 @@
         <v>343</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -11681,7 +11677,7 @@
         <v>160</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -11723,7 +11719,7 @@
         <v>114</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -11737,7 +11733,7 @@
         <v>229</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -11751,7 +11747,7 @@
         <v>111</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11765,7 +11761,7 @@
         <v>17</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -11779,7 +11775,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -11793,7 +11789,7 @@
         <v>390</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -11807,7 +11803,7 @@
         <v>195</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -11835,7 +11831,7 @@
         <v>243</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -11849,7 +11845,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -11863,7 +11859,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -11877,7 +11873,7 @@
         <v>83</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -11891,7 +11887,7 @@
         <v>80</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -11919,7 +11915,7 @@
         <v>126</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11933,7 +11929,7 @@
         <v>38</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -11947,12 +11943,12 @@
         <v>41</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="2">
         <v>17</v>
@@ -11961,12 +11957,12 @@
         <v>428</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="2">
         <v>13</v>
@@ -11975,12 +11971,12 @@
         <v>213</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="2">
         <v>21</v>
@@ -11989,12 +11985,12 @@
         <v>421</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" s="2">
         <v>17</v>
@@ -12003,12 +11999,12 @@
         <v>275</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85" s="2">
         <v>21</v>
@@ -12017,12 +12013,12 @@
         <v>276</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86" s="2">
         <v>10</v>
@@ -12031,12 +12027,12 @@
         <v>38</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B87" s="2">
         <v>6</v>
@@ -12045,12 +12041,12 @@
         <v>38</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" s="2">
         <v>8</v>
@@ -12059,12 +12055,12 @@
         <v>196</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="2">
         <v>11</v>
